--- a/assets/pizza_processed.xlsx
+++ b/assets/pizza_processed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caiopavesi/Code/example-etl-pme/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494824C2-80CF-FB4E-AEC8-575390D6355B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0632C8-4707-4443-9C5F-4C62625AAE07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Answers" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,29 @@
     <sheet name="Rankings" sheetId="5" r:id="rId5"/>
     <sheet name="AnswersMatrix" sheetId="6" r:id="rId6"/>
     <sheet name="Matrix" sheetId="7" r:id="rId7"/>
-    <sheet name="Categories" sheetId="8" r:id="rId8"/>
+    <sheet name="MatrixStatements" sheetId="9" r:id="rId8"/>
+    <sheet name="MatrixAnswers" sheetId="10" r:id="rId9"/>
+    <sheet name="Categories" sheetId="8" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="80">
   <si>
     <t>ID</t>
   </si>
@@ -636,7 +651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -4506,6 +4521,41 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE33498-B7BD-BB47-9DD8-4A5C948C02EE}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B211"/>
@@ -14103,8 +14153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14350,33 +14400,89 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE33498-B7BD-BB47-9DD8-4A5C948C02EE}">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2B5422-6000-C644-AC47-292E2EA0ABB2}">
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D315B4-78E4-494D-ACCF-526ED547EE6E}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/assets/pizza_processed.xlsx
+++ b/assets/pizza_processed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caiopavesi/Code/example-etl-pme/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caio Pavesi\Code\example-etl-pme\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0632C8-4707-4443-9C5F-4C62625AAE07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A375C89E-A78F-462F-9EAA-2CFF2CF82D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22875" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Answers" sheetId="1" r:id="rId1"/>
@@ -651,28 +651,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.1328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="58" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="43.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.46484375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="43.796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="56.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="63" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="66.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -716,7 +716,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -754,7 +754,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -792,7 +792,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -830,7 +830,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -868,7 +868,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -906,7 +906,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -944,7 +944,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -982,7 +982,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4529,24 +4529,24 @@
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -4560,17 +4560,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B211"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="E142" sqref="E142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>3</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>4</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>4</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>4</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>5</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>5</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>5</v>
       </c>
@@ -4682,15 +4682,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>7</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>7</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>7</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>8</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>8</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>8</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>9</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>9</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>10</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>10</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>11</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>12</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>13</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>13</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>13</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>14</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>14</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>14</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>15</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>15</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>15</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>16</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>16</v>
       </c>
@@ -4874,23 +4874,23 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>19</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>20</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>20</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>20</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>21</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>21</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>21</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>22</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>22</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>23</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>23</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>23</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>24</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>25</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>25</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>26</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>26</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>27</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>28</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>28</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>29</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>29</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>30</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>30</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>31</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>32</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>32</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>32</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>33</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>34</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>34</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>34</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>35</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>35</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>36</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>37</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>38</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>38</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>38</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>39</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>39</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>40</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>40</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>40</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>41</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>41</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>41</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>42</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>42</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>43</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>44</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>45</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>45</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>46</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>47</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>47</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>47</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>48</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>48</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>48</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>49</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>49</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>49</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>50</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>50</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>50</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>51</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>51</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>52</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>52</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>52</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>53</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>53</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>53</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>54</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>54</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>55</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>55</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>56</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>57</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>58</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>58</v>
       </c>
@@ -5546,7 +5546,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>58</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>59</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>59</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>59</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>60</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>60</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>60</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>61</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>61</v>
       </c>
@@ -5618,7 +5618,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>61</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>62</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>62</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>63</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>63</v>
       </c>
@@ -5658,7 +5658,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>63</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>64</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>64</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>65</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>66</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>66</v>
       </c>
@@ -5706,7 +5706,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>66</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>67</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>67</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>67</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>68</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>68</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>68</v>
       </c>
@@ -5762,15 +5762,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>69</v>
       </c>
       <c r="B150" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>70</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>70</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>71</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>71</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>72</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>73</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>73</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>74</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>75</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>75</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>76</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>76</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>77</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>77</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>77</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>78</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>79</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>80</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>80</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>81</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>81</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>82</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>82</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>83</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>83</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>83</v>
       </c>
@@ -5978,7 +5978,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>84</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>84</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>85</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>85</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>86</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>86</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>86</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>87</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>87</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>87</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>88</v>
       </c>
@@ -6066,7 +6066,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>88</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>89</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>89</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>90</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>90</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>91</v>
       </c>
@@ -6114,7 +6114,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>91</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>91</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>92</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>93</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>93</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>94</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>95</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>95</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>95</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>96</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>97</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>97</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>98</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>99</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>99</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>100</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>100</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>100</v>
       </c>
@@ -6271,12 +6271,12 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="48.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -6284,7 +6284,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -6308,7 +6308,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -6345,14 +6345,14 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="76.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6396,7 +6396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -6407,7 +6407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2</v>
       </c>
@@ -6429,7 +6429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>3</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>3</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>3</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>4</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>4</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>4</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>5</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>5</v>
       </c>
@@ -6517,7 +6517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>5</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>6</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>6</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>6</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>7</v>
       </c>
@@ -6572,7 +6572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>7</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>7</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>8</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>8</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>8</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>9</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>9</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>9</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>10</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>10</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>10</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>11</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>11</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>11</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>12</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>12</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>12</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>13</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>13</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>13</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>14</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>14</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>14</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>15</v>
       </c>
@@ -6836,7 +6836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>15</v>
       </c>
@@ -6847,7 +6847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>15</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>16</v>
       </c>
@@ -6869,7 +6869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>16</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>16</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>17</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>17</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>17</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>18</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>18</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>18</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>19</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>19</v>
       </c>
@@ -6979,7 +6979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>19</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>20</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>20</v>
       </c>
@@ -7012,7 +7012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>20</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>21</v>
       </c>
@@ -7034,7 +7034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>21</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>21</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>22</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>22</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>22</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>23</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>23</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>23</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>24</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>24</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>24</v>
       </c>
@@ -7155,7 +7155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>25</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>25</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>25</v>
       </c>
@@ -7188,7 +7188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>26</v>
       </c>
@@ -7199,7 +7199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>26</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>26</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>27</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>27</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>27</v>
       </c>
@@ -7254,7 +7254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>28</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>28</v>
       </c>
@@ -7276,7 +7276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>28</v>
       </c>
@@ -7287,7 +7287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>29</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>29</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>29</v>
       </c>
@@ -7320,7 +7320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>30</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>30</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>30</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>31</v>
       </c>
@@ -7364,7 +7364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>31</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>31</v>
       </c>
@@ -7386,7 +7386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>32</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>32</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>32</v>
       </c>
@@ -7419,7 +7419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>33</v>
       </c>
@@ -7430,7 +7430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>33</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>33</v>
       </c>
@@ -7452,7 +7452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>34</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>34</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>34</v>
       </c>
@@ -7485,7 +7485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>35</v>
       </c>
@@ -7496,7 +7496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>35</v>
       </c>
@@ -7507,7 +7507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>35</v>
       </c>
@@ -7518,7 +7518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>36</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>36</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>36</v>
       </c>
@@ -7551,7 +7551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>37</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>37</v>
       </c>
@@ -7573,7 +7573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>37</v>
       </c>
@@ -7584,7 +7584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>38</v>
       </c>
@@ -7595,7 +7595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>38</v>
       </c>
@@ -7606,7 +7606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>38</v>
       </c>
@@ -7617,7 +7617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>39</v>
       </c>
@@ -7628,7 +7628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>39</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>39</v>
       </c>
@@ -7650,7 +7650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>40</v>
       </c>
@@ -7661,7 +7661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>40</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>40</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>41</v>
       </c>
@@ -7694,7 +7694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>41</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>41</v>
       </c>
@@ -7716,7 +7716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>42</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>42</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>42</v>
       </c>
@@ -7749,7 +7749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>43</v>
       </c>
@@ -7760,7 +7760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>43</v>
       </c>
@@ -7771,7 +7771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>43</v>
       </c>
@@ -7782,7 +7782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>44</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>44</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>44</v>
       </c>
@@ -7815,7 +7815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>45</v>
       </c>
@@ -7826,7 +7826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>45</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>45</v>
       </c>
@@ -7848,7 +7848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>46</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>46</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>46</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>47</v>
       </c>
@@ -7892,7 +7892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>47</v>
       </c>
@@ -7903,7 +7903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>47</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>48</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>48</v>
       </c>
@@ -7936,7 +7936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>48</v>
       </c>
@@ -7947,7 +7947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>49</v>
       </c>
@@ -7958,7 +7958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>49</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>49</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>50</v>
       </c>
@@ -7991,7 +7991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>50</v>
       </c>
@@ -8002,7 +8002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>50</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>51</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>51</v>
       </c>
@@ -8035,7 +8035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>51</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>52</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>52</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>52</v>
       </c>
@@ -8079,7 +8079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>53</v>
       </c>
@@ -8090,7 +8090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>53</v>
       </c>
@@ -8101,7 +8101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>53</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>54</v>
       </c>
@@ -8123,7 +8123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>54</v>
       </c>
@@ -8134,7 +8134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>54</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>55</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>55</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>55</v>
       </c>
@@ -8178,7 +8178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>56</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>56</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>56</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>57</v>
       </c>
@@ -8222,7 +8222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>57</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>57</v>
       </c>
@@ -8244,7 +8244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>58</v>
       </c>
@@ -8255,7 +8255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>58</v>
       </c>
@@ -8266,7 +8266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>58</v>
       </c>
@@ -8277,7 +8277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>59</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>59</v>
       </c>
@@ -8299,7 +8299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>59</v>
       </c>
@@ -8310,7 +8310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>60</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>60</v>
       </c>
@@ -8332,7 +8332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>60</v>
       </c>
@@ -8343,7 +8343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>61</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>61</v>
       </c>
@@ -8365,7 +8365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>61</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>62</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>62</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>62</v>
       </c>
@@ -8409,7 +8409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>63</v>
       </c>
@@ -8420,7 +8420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>63</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>63</v>
       </c>
@@ -8442,7 +8442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>64</v>
       </c>
@@ -8453,7 +8453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>64</v>
       </c>
@@ -8464,7 +8464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>64</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>65</v>
       </c>
@@ -8486,7 +8486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>65</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>65</v>
       </c>
@@ -8508,7 +8508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>66</v>
       </c>
@@ -8519,7 +8519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>66</v>
       </c>
@@ -8530,7 +8530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>66</v>
       </c>
@@ -8541,7 +8541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>67</v>
       </c>
@@ -8552,7 +8552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>67</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>67</v>
       </c>
@@ -8574,7 +8574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>68</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>68</v>
       </c>
@@ -8596,7 +8596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>68</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>69</v>
       </c>
@@ -8618,7 +8618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>69</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>69</v>
       </c>
@@ -8640,7 +8640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>70</v>
       </c>
@@ -8651,7 +8651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>70</v>
       </c>
@@ -8662,7 +8662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>70</v>
       </c>
@@ -8673,7 +8673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>71</v>
       </c>
@@ -8684,7 +8684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>71</v>
       </c>
@@ -8695,7 +8695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>71</v>
       </c>
@@ -8706,7 +8706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>72</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>72</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>72</v>
       </c>
@@ -8739,7 +8739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>73</v>
       </c>
@@ -8750,7 +8750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>73</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>73</v>
       </c>
@@ -8772,7 +8772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>74</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>74</v>
       </c>
@@ -8794,7 +8794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>74</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>75</v>
       </c>
@@ -8816,7 +8816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>75</v>
       </c>
@@ -8827,7 +8827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>75</v>
       </c>
@@ -8838,7 +8838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>76</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>76</v>
       </c>
@@ -8860,7 +8860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>76</v>
       </c>
@@ -8871,7 +8871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>77</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>77</v>
       </c>
@@ -8893,7 +8893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>77</v>
       </c>
@@ -8904,7 +8904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>78</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>78</v>
       </c>
@@ -8926,7 +8926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>78</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>79</v>
       </c>
@@ -8948,7 +8948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>79</v>
       </c>
@@ -8959,7 +8959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>79</v>
       </c>
@@ -8970,7 +8970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>80</v>
       </c>
@@ -8981,7 +8981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>80</v>
       </c>
@@ -8992,7 +8992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>80</v>
       </c>
@@ -9003,7 +9003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>81</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>81</v>
       </c>
@@ -9025,7 +9025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>81</v>
       </c>
@@ -9036,7 +9036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>82</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>82</v>
       </c>
@@ -9058,7 +9058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>82</v>
       </c>
@@ -9069,7 +9069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>83</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>83</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>83</v>
       </c>
@@ -9102,7 +9102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>84</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>84</v>
       </c>
@@ -9124,7 +9124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>84</v>
       </c>
@@ -9135,7 +9135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>85</v>
       </c>
@@ -9146,7 +9146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>85</v>
       </c>
@@ -9157,7 +9157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>85</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>86</v>
       </c>
@@ -9179,7 +9179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>86</v>
       </c>
@@ -9190,7 +9190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>86</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A260">
         <v>87</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A261">
         <v>87</v>
       </c>
@@ -9223,7 +9223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>87</v>
       </c>
@@ -9234,7 +9234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>88</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A264">
         <v>88</v>
       </c>
@@ -9256,7 +9256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A265">
         <v>88</v>
       </c>
@@ -9267,7 +9267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A266">
         <v>89</v>
       </c>
@@ -9278,7 +9278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>89</v>
       </c>
@@ -9289,7 +9289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>89</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A269">
         <v>90</v>
       </c>
@@ -9311,7 +9311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A270">
         <v>90</v>
       </c>
@@ -9322,7 +9322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A271">
         <v>90</v>
       </c>
@@ -9333,7 +9333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>91</v>
       </c>
@@ -9344,7 +9344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>91</v>
       </c>
@@ -9355,7 +9355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>91</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A275">
         <v>92</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A276">
         <v>92</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>92</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>93</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>93</v>
       </c>
@@ -9421,7 +9421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>93</v>
       </c>
@@ -9432,7 +9432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A281">
         <v>94</v>
       </c>
@@ -9443,7 +9443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>94</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>94</v>
       </c>
@@ -9465,7 +9465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A284">
         <v>95</v>
       </c>
@@ -9476,7 +9476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A285">
         <v>95</v>
       </c>
@@ -9487,7 +9487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A286">
         <v>95</v>
       </c>
@@ -9498,7 +9498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>96</v>
       </c>
@@ -9509,7 +9509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>96</v>
       </c>
@@ -9520,7 +9520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A289">
         <v>96</v>
       </c>
@@ -9531,7 +9531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A290">
         <v>97</v>
       </c>
@@ -9542,7 +9542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A291">
         <v>97</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>97</v>
       </c>
@@ -9564,7 +9564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>98</v>
       </c>
@@ -9575,7 +9575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A294">
         <v>98</v>
       </c>
@@ -9586,7 +9586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A295">
         <v>98</v>
       </c>
@@ -9597,7 +9597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A296">
         <v>99</v>
       </c>
@@ -9608,7 +9608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A297">
         <v>99</v>
       </c>
@@ -9619,7 +9619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>99</v>
       </c>
@@ -9630,7 +9630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A299">
         <v>100</v>
       </c>
@@ -9641,7 +9641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A300">
         <v>100</v>
       </c>
@@ -9652,7 +9652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A301">
         <v>100</v>
       </c>
@@ -9676,12 +9676,12 @@
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="76.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -9689,7 +9689,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -9697,7 +9697,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -9705,7 +9705,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -9726,14 +9726,14 @@
       <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9744,7 +9744,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9755,7 +9755,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9766,7 +9766,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9777,7 +9777,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9788,7 +9788,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9799,7 +9799,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9810,7 +9810,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9821,7 +9821,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9832,7 +9832,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9843,7 +9843,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9854,7 +9854,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9865,7 +9865,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9876,7 +9876,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9887,7 +9887,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9898,7 +9898,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9909,7 +9909,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9920,7 +9920,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9931,7 +9931,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -9942,7 +9942,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9953,7 +9953,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9964,7 +9964,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9975,7 +9975,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9986,7 +9986,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9997,7 +9997,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -10008,7 +10008,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -10019,7 +10019,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -10030,7 +10030,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -10041,7 +10041,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -10063,7 +10063,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -10074,7 +10074,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -10085,7 +10085,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -10096,7 +10096,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -10107,7 +10107,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -10118,7 +10118,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -10129,7 +10129,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -10140,7 +10140,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
@@ -10151,7 +10151,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
@@ -10162,7 +10162,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -10173,7 +10173,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
@@ -10184,7 +10184,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
@@ -10195,7 +10195,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -10206,7 +10206,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -10217,7 +10217,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
@@ -10228,7 +10228,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
@@ -10239,7 +10239,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
@@ -10250,7 +10250,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>47</v>
       </c>
@@ -10261,7 +10261,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>48</v>
       </c>
@@ -10272,7 +10272,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>49</v>
       </c>
@@ -10283,7 +10283,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>50</v>
       </c>
@@ -10294,7 +10294,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>51</v>
       </c>
@@ -10305,7 +10305,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>52</v>
       </c>
@@ -10316,7 +10316,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>53</v>
       </c>
@@ -10327,7 +10327,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>54</v>
       </c>
@@ -10338,7 +10338,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>55</v>
       </c>
@@ -10349,7 +10349,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>56</v>
       </c>
@@ -10360,7 +10360,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>57</v>
       </c>
@@ -10371,7 +10371,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>58</v>
       </c>
@@ -10382,7 +10382,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>59</v>
       </c>
@@ -10393,7 +10393,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>60</v>
       </c>
@@ -10404,7 +10404,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>61</v>
       </c>
@@ -10415,7 +10415,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>62</v>
       </c>
@@ -10426,7 +10426,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>63</v>
       </c>
@@ -10437,7 +10437,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>64</v>
       </c>
@@ -10448,7 +10448,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>65</v>
       </c>
@@ -10459,7 +10459,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>66</v>
       </c>
@@ -10470,7 +10470,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>67</v>
       </c>
@@ -10481,7 +10481,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>68</v>
       </c>
@@ -10492,7 +10492,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>69</v>
       </c>
@@ -10503,7 +10503,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>70</v>
       </c>
@@ -10514,7 +10514,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>71</v>
       </c>
@@ -10525,7 +10525,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>72</v>
       </c>
@@ -10536,7 +10536,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>73</v>
       </c>
@@ -10547,7 +10547,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>74</v>
       </c>
@@ -10558,7 +10558,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>75</v>
       </c>
@@ -10569,7 +10569,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>76</v>
       </c>
@@ -10580,7 +10580,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>77</v>
       </c>
@@ -10591,7 +10591,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>78</v>
       </c>
@@ -10602,7 +10602,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>79</v>
       </c>
@@ -10613,7 +10613,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>80</v>
       </c>
@@ -10624,7 +10624,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>81</v>
       </c>
@@ -10635,7 +10635,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>82</v>
       </c>
@@ -10646,7 +10646,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>83</v>
       </c>
@@ -10657,7 +10657,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>84</v>
       </c>
@@ -10668,7 +10668,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>85</v>
       </c>
@@ -10679,7 +10679,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>86</v>
       </c>
@@ -10690,7 +10690,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>87</v>
       </c>
@@ -10701,7 +10701,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>88</v>
       </c>
@@ -10712,7 +10712,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>89</v>
       </c>
@@ -10723,7 +10723,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>90</v>
       </c>
@@ -10734,7 +10734,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>91</v>
       </c>
@@ -10745,7 +10745,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>92</v>
       </c>
@@ -10756,7 +10756,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>93</v>
       </c>
@@ -10767,7 +10767,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>94</v>
       </c>
@@ -10778,7 +10778,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>95</v>
       </c>
@@ -10789,7 +10789,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>96</v>
       </c>
@@ -10800,7 +10800,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>97</v>
       </c>
@@ -10811,7 +10811,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>98</v>
       </c>
@@ -10822,7 +10822,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>99</v>
       </c>
@@ -10833,7 +10833,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>100</v>
       </c>
@@ -10844,7 +10844,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>1</v>
       </c>
@@ -10855,7 +10855,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>2</v>
       </c>
@@ -10866,7 +10866,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>3</v>
       </c>
@@ -10877,7 +10877,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>4</v>
       </c>
@@ -10888,7 +10888,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>5</v>
       </c>
@@ -10899,7 +10899,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>6</v>
       </c>
@@ -10910,7 +10910,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>7</v>
       </c>
@@ -10921,7 +10921,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>8</v>
       </c>
@@ -10932,7 +10932,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>9</v>
       </c>
@@ -10943,7 +10943,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>10</v>
       </c>
@@ -10954,7 +10954,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>11</v>
       </c>
@@ -10965,7 +10965,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>12</v>
       </c>
@@ -10976,7 +10976,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>13</v>
       </c>
@@ -10987,7 +10987,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>14</v>
       </c>
@@ -10998,7 +10998,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>15</v>
       </c>
@@ -11009,7 +11009,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>16</v>
       </c>
@@ -11020,7 +11020,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>17</v>
       </c>
@@ -11031,7 +11031,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>18</v>
       </c>
@@ -11042,7 +11042,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>19</v>
       </c>
@@ -11053,7 +11053,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>20</v>
       </c>
@@ -11064,7 +11064,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>21</v>
       </c>
@@ -11075,7 +11075,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>22</v>
       </c>
@@ -11086,7 +11086,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>23</v>
       </c>
@@ -11097,7 +11097,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>24</v>
       </c>
@@ -11108,7 +11108,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>25</v>
       </c>
@@ -11119,7 +11119,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>26</v>
       </c>
@@ -11130,7 +11130,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>27</v>
       </c>
@@ -11141,7 +11141,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>28</v>
       </c>
@@ -11152,7 +11152,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>29</v>
       </c>
@@ -11163,7 +11163,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>30</v>
       </c>
@@ -11174,7 +11174,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>31</v>
       </c>
@@ -11185,7 +11185,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>32</v>
       </c>
@@ -11196,7 +11196,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>33</v>
       </c>
@@ -11207,7 +11207,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>34</v>
       </c>
@@ -11218,7 +11218,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>35</v>
       </c>
@@ -11229,7 +11229,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>36</v>
       </c>
@@ -11240,7 +11240,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>37</v>
       </c>
@@ -11251,7 +11251,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>38</v>
       </c>
@@ -11262,7 +11262,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>39</v>
       </c>
@@ -11273,7 +11273,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>40</v>
       </c>
@@ -11284,7 +11284,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>41</v>
       </c>
@@ -11295,7 +11295,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>42</v>
       </c>
@@ -11306,7 +11306,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>43</v>
       </c>
@@ -11317,7 +11317,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>44</v>
       </c>
@@ -11328,7 +11328,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>45</v>
       </c>
@@ -11339,7 +11339,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>46</v>
       </c>
@@ -11350,7 +11350,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>47</v>
       </c>
@@ -11361,7 +11361,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>48</v>
       </c>
@@ -11372,7 +11372,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>49</v>
       </c>
@@ -11383,7 +11383,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>50</v>
       </c>
@@ -11394,7 +11394,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>51</v>
       </c>
@@ -11405,7 +11405,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>52</v>
       </c>
@@ -11416,7 +11416,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>53</v>
       </c>
@@ -11427,7 +11427,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>54</v>
       </c>
@@ -11438,7 +11438,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>55</v>
       </c>
@@ -11449,7 +11449,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>56</v>
       </c>
@@ -11460,7 +11460,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>57</v>
       </c>
@@ -11471,7 +11471,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>58</v>
       </c>
@@ -11482,7 +11482,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>59</v>
       </c>
@@ -11493,7 +11493,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>60</v>
       </c>
@@ -11504,7 +11504,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>61</v>
       </c>
@@ -11515,7 +11515,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>62</v>
       </c>
@@ -11526,7 +11526,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>63</v>
       </c>
@@ -11537,7 +11537,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>64</v>
       </c>
@@ -11548,7 +11548,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>65</v>
       </c>
@@ -11559,7 +11559,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>66</v>
       </c>
@@ -11570,7 +11570,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>67</v>
       </c>
@@ -11581,7 +11581,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>68</v>
       </c>
@@ -11592,7 +11592,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>69</v>
       </c>
@@ -11603,7 +11603,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>70</v>
       </c>
@@ -11614,7 +11614,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>71</v>
       </c>
@@ -11625,7 +11625,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>72</v>
       </c>
@@ -11636,7 +11636,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>73</v>
       </c>
@@ -11647,7 +11647,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>74</v>
       </c>
@@ -11658,7 +11658,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>75</v>
       </c>
@@ -11669,7 +11669,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>76</v>
       </c>
@@ -11680,7 +11680,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>77</v>
       </c>
@@ -11691,7 +11691,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>78</v>
       </c>
@@ -11702,7 +11702,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>79</v>
       </c>
@@ -11713,7 +11713,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>80</v>
       </c>
@@ -11724,7 +11724,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>81</v>
       </c>
@@ -11735,7 +11735,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>82</v>
       </c>
@@ -11746,7 +11746,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>83</v>
       </c>
@@ -11757,7 +11757,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>84</v>
       </c>
@@ -11768,7 +11768,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>85</v>
       </c>
@@ -11779,7 +11779,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>86</v>
       </c>
@@ -11790,7 +11790,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>87</v>
       </c>
@@ -11801,7 +11801,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>88</v>
       </c>
@@ -11812,7 +11812,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>89</v>
       </c>
@@ -11823,7 +11823,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>90</v>
       </c>
@@ -11834,7 +11834,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>91</v>
       </c>
@@ -11845,7 +11845,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>92</v>
       </c>
@@ -11856,7 +11856,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>93</v>
       </c>
@@ -11867,7 +11867,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>94</v>
       </c>
@@ -11878,7 +11878,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>95</v>
       </c>
@@ -11889,7 +11889,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>96</v>
       </c>
@@ -11900,7 +11900,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>97</v>
       </c>
@@ -11911,7 +11911,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>98</v>
       </c>
@@ -11922,7 +11922,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>99</v>
       </c>
@@ -11933,7 +11933,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>100</v>
       </c>
@@ -11944,7 +11944,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>1</v>
       </c>
@@ -11955,7 +11955,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>2</v>
       </c>
@@ -11966,7 +11966,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>3</v>
       </c>
@@ -11977,7 +11977,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>4</v>
       </c>
@@ -11988,7 +11988,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>5</v>
       </c>
@@ -11999,7 +11999,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>6</v>
       </c>
@@ -12010,7 +12010,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>7</v>
       </c>
@@ -12021,7 +12021,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>8</v>
       </c>
@@ -12032,7 +12032,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>9</v>
       </c>
@@ -12043,7 +12043,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>10</v>
       </c>
@@ -12054,7 +12054,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>11</v>
       </c>
@@ -12065,7 +12065,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>12</v>
       </c>
@@ -12076,7 +12076,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>13</v>
       </c>
@@ -12087,7 +12087,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>14</v>
       </c>
@@ -12098,7 +12098,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>15</v>
       </c>
@@ -12109,7 +12109,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>16</v>
       </c>
@@ -12120,7 +12120,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>17</v>
       </c>
@@ -12131,7 +12131,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>18</v>
       </c>
@@ -12142,7 +12142,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>19</v>
       </c>
@@ -12153,7 +12153,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>20</v>
       </c>
@@ -12164,7 +12164,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>21</v>
       </c>
@@ -12175,7 +12175,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>22</v>
       </c>
@@ -12186,7 +12186,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>23</v>
       </c>
@@ -12197,7 +12197,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>24</v>
       </c>
@@ -12208,7 +12208,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>25</v>
       </c>
@@ -12219,7 +12219,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>26</v>
       </c>
@@ -12230,7 +12230,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>27</v>
       </c>
@@ -12241,7 +12241,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>28</v>
       </c>
@@ -12252,7 +12252,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>29</v>
       </c>
@@ -12263,7 +12263,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>30</v>
       </c>
@@ -12274,7 +12274,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>31</v>
       </c>
@@ -12285,7 +12285,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>32</v>
       </c>
@@ -12296,7 +12296,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>33</v>
       </c>
@@ -12307,7 +12307,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>34</v>
       </c>
@@ -12318,7 +12318,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>35</v>
       </c>
@@ -12329,7 +12329,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>36</v>
       </c>
@@ -12340,7 +12340,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>37</v>
       </c>
@@ -12351,7 +12351,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>38</v>
       </c>
@@ -12362,7 +12362,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>39</v>
       </c>
@@ -12373,7 +12373,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>40</v>
       </c>
@@ -12384,7 +12384,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>41</v>
       </c>
@@ -12395,7 +12395,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>42</v>
       </c>
@@ -12406,7 +12406,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>43</v>
       </c>
@@ -12417,7 +12417,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>44</v>
       </c>
@@ -12428,7 +12428,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>45</v>
       </c>
@@ -12439,7 +12439,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>46</v>
       </c>
@@ -12450,7 +12450,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>47</v>
       </c>
@@ -12461,7 +12461,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>48</v>
       </c>
@@ -12472,7 +12472,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>49</v>
       </c>
@@ -12483,7 +12483,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>50</v>
       </c>
@@ -12494,7 +12494,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>51</v>
       </c>
@@ -12505,7 +12505,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>52</v>
       </c>
@@ -12516,7 +12516,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>53</v>
       </c>
@@ -12527,7 +12527,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>54</v>
       </c>
@@ -12538,7 +12538,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>55</v>
       </c>
@@ -12549,7 +12549,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>56</v>
       </c>
@@ -12560,7 +12560,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>57</v>
       </c>
@@ -12571,7 +12571,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>58</v>
       </c>
@@ -12582,7 +12582,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A260">
         <v>59</v>
       </c>
@@ -12593,7 +12593,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A261">
         <v>60</v>
       </c>
@@ -12604,7 +12604,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>61</v>
       </c>
@@ -12615,7 +12615,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>62</v>
       </c>
@@ -12626,7 +12626,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A264">
         <v>63</v>
       </c>
@@ -12637,7 +12637,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A265">
         <v>64</v>
       </c>
@@ -12648,7 +12648,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A266">
         <v>65</v>
       </c>
@@ -12659,7 +12659,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>66</v>
       </c>
@@ -12670,7 +12670,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>67</v>
       </c>
@@ -12681,7 +12681,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A269">
         <v>68</v>
       </c>
@@ -12692,7 +12692,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A270">
         <v>69</v>
       </c>
@@ -12703,7 +12703,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A271">
         <v>70</v>
       </c>
@@ -12714,7 +12714,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>71</v>
       </c>
@@ -12725,7 +12725,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>72</v>
       </c>
@@ -12736,7 +12736,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>73</v>
       </c>
@@ -12747,7 +12747,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A275">
         <v>74</v>
       </c>
@@ -12758,7 +12758,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A276">
         <v>75</v>
       </c>
@@ -12769,7 +12769,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>76</v>
       </c>
@@ -12780,7 +12780,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>77</v>
       </c>
@@ -12791,7 +12791,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>78</v>
       </c>
@@ -12802,7 +12802,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>79</v>
       </c>
@@ -12813,7 +12813,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A281">
         <v>80</v>
       </c>
@@ -12824,7 +12824,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>81</v>
       </c>
@@ -12835,7 +12835,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>82</v>
       </c>
@@ -12846,7 +12846,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A284">
         <v>83</v>
       </c>
@@ -12857,7 +12857,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A285">
         <v>84</v>
       </c>
@@ -12868,7 +12868,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A286">
         <v>85</v>
       </c>
@@ -12879,7 +12879,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>86</v>
       </c>
@@ -12890,7 +12890,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>87</v>
       </c>
@@ -12901,7 +12901,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A289">
         <v>88</v>
       </c>
@@ -12912,7 +12912,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A290">
         <v>89</v>
       </c>
@@ -12923,7 +12923,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A291">
         <v>90</v>
       </c>
@@ -12934,7 +12934,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>91</v>
       </c>
@@ -12945,7 +12945,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>92</v>
       </c>
@@ -12956,7 +12956,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A294">
         <v>93</v>
       </c>
@@ -12967,7 +12967,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A295">
         <v>94</v>
       </c>
@@ -12978,7 +12978,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A296">
         <v>95</v>
       </c>
@@ -12989,7 +12989,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A297">
         <v>96</v>
       </c>
@@ -13000,7 +13000,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>97</v>
       </c>
@@ -13011,7 +13011,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A299">
         <v>98</v>
       </c>
@@ -13022,7 +13022,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A300">
         <v>99</v>
       </c>
@@ -13033,7 +13033,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A301">
         <v>100</v>
       </c>
@@ -13044,7 +13044,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>1</v>
       </c>
@@ -13055,7 +13055,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>2</v>
       </c>
@@ -13066,7 +13066,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A304">
         <v>3</v>
       </c>
@@ -13077,7 +13077,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A305">
         <v>4</v>
       </c>
@@ -13088,7 +13088,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A306">
         <v>5</v>
       </c>
@@ -13099,7 +13099,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>6</v>
       </c>
@@ -13110,7 +13110,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A308">
         <v>7</v>
       </c>
@@ -13121,7 +13121,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A309">
         <v>8</v>
       </c>
@@ -13132,7 +13132,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A310">
         <v>9</v>
       </c>
@@ -13143,7 +13143,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A311">
         <v>10</v>
       </c>
@@ -13154,7 +13154,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A312">
         <v>11</v>
       </c>
@@ -13165,7 +13165,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A313">
         <v>12</v>
       </c>
@@ -13176,7 +13176,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A314">
         <v>13</v>
       </c>
@@ -13187,7 +13187,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A315">
         <v>14</v>
       </c>
@@ -13198,7 +13198,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A316">
         <v>15</v>
       </c>
@@ -13209,7 +13209,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A317">
         <v>16</v>
       </c>
@@ -13220,7 +13220,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A318">
         <v>17</v>
       </c>
@@ -13231,7 +13231,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A319">
         <v>18</v>
       </c>
@@ -13242,7 +13242,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A320">
         <v>19</v>
       </c>
@@ -13253,7 +13253,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A321">
         <v>20</v>
       </c>
@@ -13264,7 +13264,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A322">
         <v>21</v>
       </c>
@@ -13275,7 +13275,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A323">
         <v>22</v>
       </c>
@@ -13286,7 +13286,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A324">
         <v>23</v>
       </c>
@@ -13297,7 +13297,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A325">
         <v>24</v>
       </c>
@@ -13308,7 +13308,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A326">
         <v>25</v>
       </c>
@@ -13319,7 +13319,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A327">
         <v>26</v>
       </c>
@@ -13330,7 +13330,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A328">
         <v>27</v>
       </c>
@@ -13341,7 +13341,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A329">
         <v>28</v>
       </c>
@@ -13352,7 +13352,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A330">
         <v>29</v>
       </c>
@@ -13363,7 +13363,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A331">
         <v>30</v>
       </c>
@@ -13374,7 +13374,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A332">
         <v>31</v>
       </c>
@@ -13385,7 +13385,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A333">
         <v>32</v>
       </c>
@@ -13396,7 +13396,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A334">
         <v>33</v>
       </c>
@@ -13407,7 +13407,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A335">
         <v>34</v>
       </c>
@@ -13418,7 +13418,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A336">
         <v>35</v>
       </c>
@@ -13429,7 +13429,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A337">
         <v>36</v>
       </c>
@@ -13440,7 +13440,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A338">
         <v>37</v>
       </c>
@@ -13451,7 +13451,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A339">
         <v>38</v>
       </c>
@@ -13462,7 +13462,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A340">
         <v>39</v>
       </c>
@@ -13473,7 +13473,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A341">
         <v>40</v>
       </c>
@@ -13484,7 +13484,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A342">
         <v>41</v>
       </c>
@@ -13495,7 +13495,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A343">
         <v>42</v>
       </c>
@@ -13506,7 +13506,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A344">
         <v>43</v>
       </c>
@@ -13517,7 +13517,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A345">
         <v>44</v>
       </c>
@@ -13528,7 +13528,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A346">
         <v>45</v>
       </c>
@@ -13539,7 +13539,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A347">
         <v>46</v>
       </c>
@@ -13550,7 +13550,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A348">
         <v>47</v>
       </c>
@@ -13561,7 +13561,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A349">
         <v>48</v>
       </c>
@@ -13572,7 +13572,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A350">
         <v>49</v>
       </c>
@@ -13583,7 +13583,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A351">
         <v>50</v>
       </c>
@@ -13594,7 +13594,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A352">
         <v>51</v>
       </c>
@@ -13605,7 +13605,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A353">
         <v>52</v>
       </c>
@@ -13616,7 +13616,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A354">
         <v>53</v>
       </c>
@@ -13627,7 +13627,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A355">
         <v>54</v>
       </c>
@@ -13638,7 +13638,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A356">
         <v>55</v>
       </c>
@@ -13649,7 +13649,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A357">
         <v>56</v>
       </c>
@@ -13660,7 +13660,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A358">
         <v>57</v>
       </c>
@@ -13671,7 +13671,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A359">
         <v>58</v>
       </c>
@@ -13682,7 +13682,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A360">
         <v>59</v>
       </c>
@@ -13693,7 +13693,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A361">
         <v>60</v>
       </c>
@@ -13704,7 +13704,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A362">
         <v>61</v>
       </c>
@@ -13715,7 +13715,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A363">
         <v>62</v>
       </c>
@@ -13726,7 +13726,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A364">
         <v>63</v>
       </c>
@@ -13737,7 +13737,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A365">
         <v>64</v>
       </c>
@@ -13748,7 +13748,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A366">
         <v>65</v>
       </c>
@@ -13759,7 +13759,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A367">
         <v>66</v>
       </c>
@@ -13770,7 +13770,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A368">
         <v>67</v>
       </c>
@@ -13781,7 +13781,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A369">
         <v>68</v>
       </c>
@@ -13792,7 +13792,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A370">
         <v>69</v>
       </c>
@@ -13803,7 +13803,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A371">
         <v>70</v>
       </c>
@@ -13814,7 +13814,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A372">
         <v>71</v>
       </c>
@@ -13825,7 +13825,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A373">
         <v>72</v>
       </c>
@@ -13836,7 +13836,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A374">
         <v>73</v>
       </c>
@@ -13847,7 +13847,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A375">
         <v>74</v>
       </c>
@@ -13858,7 +13858,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A376">
         <v>75</v>
       </c>
@@ -13869,7 +13869,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A377">
         <v>76</v>
       </c>
@@ -13880,7 +13880,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A378">
         <v>77</v>
       </c>
@@ -13891,7 +13891,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A379">
         <v>78</v>
       </c>
@@ -13902,7 +13902,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A380">
         <v>79</v>
       </c>
@@ -13913,7 +13913,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A381">
         <v>80</v>
       </c>
@@ -13924,7 +13924,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A382">
         <v>81</v>
       </c>
@@ -13935,7 +13935,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A383">
         <v>82</v>
       </c>
@@ -13946,7 +13946,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A384">
         <v>83</v>
       </c>
@@ -13957,7 +13957,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A385">
         <v>84</v>
       </c>
@@ -13968,7 +13968,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A386">
         <v>85</v>
       </c>
@@ -13979,7 +13979,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A387">
         <v>86</v>
       </c>
@@ -13990,7 +13990,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A388">
         <v>87</v>
       </c>
@@ -14001,7 +14001,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A389">
         <v>88</v>
       </c>
@@ -14012,7 +14012,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A390">
         <v>89</v>
       </c>
@@ -14023,7 +14023,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A391">
         <v>90</v>
       </c>
@@ -14034,7 +14034,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A392">
         <v>91</v>
       </c>
@@ -14045,7 +14045,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A393">
         <v>92</v>
       </c>
@@ -14056,7 +14056,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A394">
         <v>93</v>
       </c>
@@ -14067,7 +14067,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A395">
         <v>94</v>
       </c>
@@ -14078,7 +14078,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A396">
         <v>95</v>
       </c>
@@ -14089,7 +14089,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A397">
         <v>96</v>
       </c>
@@ -14100,7 +14100,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A398">
         <v>97</v>
       </c>
@@ -14111,7 +14111,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A399">
         <v>98</v>
       </c>
@@ -14122,7 +14122,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A400">
         <v>99</v>
       </c>
@@ -14133,7 +14133,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A401">
         <v>100</v>
       </c>
@@ -14157,13 +14157,13 @@
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
@@ -14174,7 +14174,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -14185,7 +14185,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -14196,7 +14196,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -14207,7 +14207,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -14218,7 +14218,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -14229,7 +14229,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -14240,7 +14240,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -14251,7 +14251,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -14262,7 +14262,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -14273,7 +14273,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -14284,7 +14284,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -14295,7 +14295,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -14306,7 +14306,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -14317,7 +14317,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>69</v>
       </c>
@@ -14328,7 +14328,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>69</v>
       </c>
@@ -14339,7 +14339,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -14350,7 +14350,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -14361,7 +14361,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -14372,7 +14372,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -14383,7 +14383,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -14407,32 +14407,32 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -14450,37 +14450,37 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>67</v>
       </c>
